--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.787220333333333</v>
+        <v>0.5984806666666667</v>
       </c>
       <c r="H2">
-        <v>11.361661</v>
+        <v>1.795442</v>
       </c>
       <c r="I2">
-        <v>0.0172657926291056</v>
+        <v>0.002763845209804117</v>
       </c>
       <c r="J2">
-        <v>0.0172657926291056</v>
+        <v>0.002763845209804117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N2">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O2">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P2">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q2">
-        <v>89.60986972381286</v>
+        <v>15.38041649566889</v>
       </c>
       <c r="R2">
-        <v>806.4888275143159</v>
+        <v>138.42374846102</v>
       </c>
       <c r="S2">
-        <v>0.001529957195369995</v>
+        <v>0.0002421472044947476</v>
       </c>
       <c r="T2">
-        <v>0.001529957195369995</v>
+        <v>0.0002421472044947477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.787220333333333</v>
+        <v>0.5984806666666667</v>
       </c>
       <c r="H3">
-        <v>11.361661</v>
+        <v>1.795442</v>
       </c>
       <c r="I3">
-        <v>0.0172657926291056</v>
+        <v>0.002763845209804117</v>
       </c>
       <c r="J3">
-        <v>0.0172657926291056</v>
+        <v>0.002763845209804117</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q3">
-        <v>0.6144184283715555</v>
+        <v>0.09709431146311111</v>
       </c>
       <c r="R3">
-        <v>5.529765855343999</v>
+        <v>0.8738488031680001</v>
       </c>
       <c r="S3">
-        <v>1.049029418692683E-05</v>
+        <v>1.528639754310646E-06</v>
       </c>
       <c r="T3">
-        <v>1.049029418692683E-05</v>
+        <v>1.528639754310646E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.787220333333333</v>
+        <v>0.5984806666666667</v>
       </c>
       <c r="H4">
-        <v>11.361661</v>
+        <v>1.795442</v>
       </c>
       <c r="I4">
-        <v>0.0172657926291056</v>
+        <v>0.002763845209804117</v>
       </c>
       <c r="J4">
-        <v>0.0172657926291056</v>
+        <v>0.002763845209804117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N4">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O4">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P4">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q4">
-        <v>45.41248832222043</v>
+        <v>28.08502752661956</v>
       </c>
       <c r="R4">
-        <v>408.7123948999839</v>
+        <v>252.765247739576</v>
       </c>
       <c r="S4">
-        <v>0.0007753516826034805</v>
+        <v>0.0004421668883702881</v>
       </c>
       <c r="T4">
-        <v>0.0007753516826034807</v>
+        <v>0.0004421668883702882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.787220333333333</v>
+        <v>0.5984806666666667</v>
       </c>
       <c r="H5">
-        <v>11.361661</v>
+        <v>1.795442</v>
       </c>
       <c r="I5">
-        <v>0.0172657926291056</v>
+        <v>0.002763845209804117</v>
       </c>
       <c r="J5">
-        <v>0.0172657926291056</v>
+        <v>0.002763845209804117</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N5">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O5">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P5">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q5">
-        <v>875.6238214394864</v>
+        <v>131.9880757856393</v>
       </c>
       <c r="R5">
-        <v>7880.614392955377</v>
+        <v>1187.892682070754</v>
       </c>
       <c r="S5">
-        <v>0.01494999345694519</v>
+        <v>0.002078002477184771</v>
       </c>
       <c r="T5">
-        <v>0.0149499934569452</v>
+        <v>0.002078002477184771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>644.744537</v>
       </c>
       <c r="I6">
-        <v>0.979788560369008</v>
+        <v>0.9924988388011551</v>
       </c>
       <c r="J6">
-        <v>0.9797885603690079</v>
+        <v>0.9924988388011552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N6">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O6">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P6">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q6">
-        <v>5085.125666547353</v>
+        <v>5523.118826655052</v>
       </c>
       <c r="R6">
-        <v>45766.13099892617</v>
+        <v>49708.06943989547</v>
       </c>
       <c r="S6">
-        <v>0.08682106811307308</v>
+        <v>0.08695523845816817</v>
       </c>
       <c r="T6">
-        <v>0.08682106811307308</v>
+        <v>0.0869552384581682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>644.744537</v>
       </c>
       <c r="I7">
-        <v>0.979788560369008</v>
+        <v>0.9924988388011551</v>
       </c>
       <c r="J7">
-        <v>0.9797885603690079</v>
+        <v>0.9924988388011552</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.486704</v>
       </c>
       <c r="O7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q7">
         <v>34.86663834844978</v>
@@ -883,10 +883,10 @@
         <v>313.799745136048</v>
       </c>
       <c r="S7">
-        <v>0.0005952967500565219</v>
+        <v>0.0005489356551939917</v>
       </c>
       <c r="T7">
-        <v>0.0005952967500565219</v>
+        <v>0.0005489356551939919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>644.744537</v>
       </c>
       <c r="I8">
-        <v>0.979788560369008</v>
+        <v>0.9924988388011551</v>
       </c>
       <c r="J8">
-        <v>0.9797885603690079</v>
+        <v>0.9924988388011552</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N8">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O8">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P8">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q8">
-        <v>2577.039902645214</v>
+        <v>10085.35395144069</v>
       </c>
       <c r="R8">
-        <v>23193.35912380693</v>
+        <v>90768.18556296625</v>
       </c>
       <c r="S8">
-        <v>0.04399917948725562</v>
+        <v>0.1587824534120468</v>
       </c>
       <c r="T8">
-        <v>0.04399917948725562</v>
+        <v>0.1587824534120468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>644.744537</v>
       </c>
       <c r="I9">
-        <v>0.979788560369008</v>
+        <v>0.9924988388011551</v>
       </c>
       <c r="J9">
-        <v>0.9797885603690079</v>
+        <v>0.9924988388011552</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N9">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O9">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P9">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q9">
-        <v>49689.36103094191</v>
+        <v>47397.01466933098</v>
       </c>
       <c r="R9">
-        <v>447204.2492784772</v>
+        <v>426573.1320239787</v>
       </c>
       <c r="S9">
-        <v>0.8483730160186227</v>
+        <v>0.7462122112757461</v>
       </c>
       <c r="T9">
-        <v>0.8483730160186227</v>
+        <v>0.7462122112757462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1256643333333333</v>
+        <v>0.278701</v>
       </c>
       <c r="H10">
-        <v>0.376993</v>
+        <v>0.836103</v>
       </c>
       <c r="I10">
-        <v>0.0005728988886945673</v>
+        <v>0.001287069853246639</v>
       </c>
       <c r="J10">
-        <v>0.0005728988886945673</v>
+        <v>0.001287069853246639</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N10">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O10">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P10">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q10">
-        <v>2.973358703167555</v>
+        <v>7.162365798103333</v>
       </c>
       <c r="R10">
-        <v>26.760228328508</v>
+        <v>64.46129218292999</v>
       </c>
       <c r="S10">
-        <v>5.076574217045557E-05</v>
+        <v>0.0001127633218559397</v>
       </c>
       <c r="T10">
-        <v>5.076574217045558E-05</v>
+        <v>0.0001127633218559397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1256643333333333</v>
+        <v>0.278701</v>
       </c>
       <c r="H11">
-        <v>0.376993</v>
+        <v>0.836103</v>
       </c>
       <c r="I11">
-        <v>0.0005728988886945673</v>
+        <v>0.001287069853246639</v>
       </c>
       <c r="J11">
-        <v>0.0005728988886945673</v>
+        <v>0.001287069853246639</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.486704</v>
       </c>
       <c r="O11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q11">
-        <v>0.02038711123022222</v>
+        <v>0.04521496383466667</v>
       </c>
       <c r="R11">
-        <v>0.183484001072</v>
+        <v>0.406934674512</v>
       </c>
       <c r="S11">
-        <v>3.48080045374713E-07</v>
+        <v>7.118582970089782E-07</v>
       </c>
       <c r="T11">
-        <v>3.48080045374713E-07</v>
+        <v>7.118582970089783E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1256643333333333</v>
+        <v>0.278701</v>
       </c>
       <c r="H12">
-        <v>0.376993</v>
+        <v>0.836103</v>
       </c>
       <c r="I12">
-        <v>0.0005728988886945673</v>
+        <v>0.001287069853246639</v>
       </c>
       <c r="J12">
-        <v>0.0005728988886945673</v>
+        <v>0.001287069853246639</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N12">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O12">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P12">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q12">
-        <v>1.506838675265777</v>
+        <v>13.07866016840934</v>
       </c>
       <c r="R12">
-        <v>13.561548077392</v>
+        <v>117.707941515684</v>
       </c>
       <c r="S12">
-        <v>2.572706199205679E-05</v>
+        <v>0.0002059086630852253</v>
       </c>
       <c r="T12">
-        <v>2.57270619920568E-05</v>
+        <v>0.0002059086630852253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1256643333333333</v>
+        <v>0.278701</v>
       </c>
       <c r="H13">
-        <v>0.376993</v>
+        <v>0.836103</v>
       </c>
       <c r="I13">
-        <v>0.0005728988886945673</v>
+        <v>0.001287069853246639</v>
       </c>
       <c r="J13">
-        <v>0.0005728988886945673</v>
+        <v>0.001287069853246639</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N13">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O13">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P13">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q13">
-        <v>29.05420706672522</v>
+        <v>61.464322505879</v>
       </c>
       <c r="R13">
-        <v>261.487863600527</v>
+        <v>553.178902552911</v>
       </c>
       <c r="S13">
-        <v>0.0004960580044866802</v>
+        <v>0.000967686010008465</v>
       </c>
       <c r="T13">
-        <v>0.0004960580044866803</v>
+        <v>0.0009676860100084651</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.520458</v>
+        <v>0.7471133333333334</v>
       </c>
       <c r="H14">
-        <v>1.561374</v>
+        <v>2.24134</v>
       </c>
       <c r="I14">
-        <v>0.002372748113191999</v>
+        <v>0.003450246135794061</v>
       </c>
       <c r="J14">
-        <v>0.002372748113191999</v>
+        <v>0.003450246135794061</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N14">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O14">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P14">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q14">
-        <v>12.314618499016</v>
+        <v>19.20014275504444</v>
       </c>
       <c r="R14">
-        <v>110.831566491144</v>
+        <v>172.8012847954</v>
       </c>
       <c r="S14">
-        <v>0.0002102540628490526</v>
+        <v>0.000302284459939256</v>
       </c>
       <c r="T14">
-        <v>0.0002102540628490526</v>
+        <v>0.0003022844599392561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.520458</v>
+        <v>0.7471133333333334</v>
       </c>
       <c r="H15">
-        <v>1.561374</v>
+        <v>2.24134</v>
       </c>
       <c r="I15">
-        <v>0.002372748113191999</v>
+        <v>0.003450246135794061</v>
       </c>
       <c r="J15">
-        <v>0.002372748113191999</v>
+        <v>0.003450246135794061</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.486704</v>
       </c>
       <c r="O15">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P15">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q15">
-        <v>0.084436330144</v>
+        <v>0.1212076825955556</v>
       </c>
       <c r="R15">
-        <v>0.7599269712959998</v>
+        <v>1.09086914336</v>
       </c>
       <c r="S15">
-        <v>1.441626589265311E-06</v>
+        <v>1.90827741966971E-06</v>
       </c>
       <c r="T15">
-        <v>1.44162658926531E-06</v>
+        <v>1.90827741966971E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.520458</v>
+        <v>0.7471133333333334</v>
       </c>
       <c r="H16">
-        <v>1.561374</v>
+        <v>2.24134</v>
       </c>
       <c r="I16">
-        <v>0.002372748113191999</v>
+        <v>0.003450246135794061</v>
       </c>
       <c r="J16">
-        <v>0.002372748113191999</v>
+        <v>0.003450246135794061</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N16">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O16">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P16">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q16">
-        <v>6.240802162783999</v>
+        <v>35.05994378905778</v>
       </c>
       <c r="R16">
-        <v>56.16721946505599</v>
+        <v>315.5394941015201</v>
       </c>
       <c r="S16">
-        <v>0.0001065525505534206</v>
+        <v>0.0005519790299992212</v>
       </c>
       <c r="T16">
-        <v>0.0001065525505534206</v>
+        <v>0.0005519790299992213</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.520458</v>
+        <v>0.7471133333333334</v>
       </c>
       <c r="H17">
-        <v>1.561374</v>
+        <v>2.24134</v>
       </c>
       <c r="I17">
-        <v>0.002372748113191999</v>
+        <v>0.003450246135794061</v>
       </c>
       <c r="J17">
-        <v>0.002372748113191999</v>
+        <v>0.003450246135794061</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N17">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O17">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P17">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q17">
-        <v>120.332429261554</v>
+        <v>164.7673128852867</v>
       </c>
       <c r="R17">
-        <v>1082.991863353986</v>
+        <v>1482.90581596758</v>
       </c>
       <c r="S17">
-        <v>0.002054499873200261</v>
+        <v>0.002594074368435914</v>
       </c>
       <c r="T17">
-        <v>0.00205449987320026</v>
+        <v>0.002594074368435915</v>
       </c>
     </row>
   </sheetData>
